--- a/Gabigol.xlsx
+++ b/Gabigol.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jotah\Desktop\INSPER\2ºSemestre\Ciência dos Dados\Projeto_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jotah\Desktop\INSPER\2ºSemestre\Ciência dos Dados\Projeto_2\Projeto_2-Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9D015D-E282-4DBE-9330-DD274E2B1FFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BB726F-6EF7-4F53-A648-333ADAC45401}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
-    <sheet name="Teste" sheetId="2" r:id="rId2"/>
+    <sheet name="Teste" sheetId="2" r:id="rId1"/>
+    <sheet name="Treinamento" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="222">
   <si>
     <t>Treinamento</t>
   </si>
@@ -787,6 +787,9 @@
   </si>
   <si>
     <t>0- Indiferente</t>
+  </si>
+  <si>
+    <t>rt @geo_fla_: gabigol ta pedindo gabigol ta pedindgabigol ta pedindo https://t.co/z1uzhsbmpt</t>
   </si>
 </sst>
 </file>
@@ -856,13 +859,16 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1201,11 +1207,1032 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A136" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N301"/>
+  <dimension ref="A1:N211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N186" sqref="N186"/>
+      <selection activeCell="A218" sqref="A218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,8 +2255,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1267,23 +2294,23 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1291,15 +2318,15 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1307,15 +2334,15 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1323,55 +2350,55 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1379,15 +2406,15 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1395,47 +2422,47 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1443,7 +2470,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1451,15 +2478,15 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1467,7 +2494,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1475,7 +2502,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1483,7 +2510,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1491,7 +2518,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1499,47 +2526,47 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1547,15 +2574,15 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1563,55 +2590,55 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1619,31 +2646,31 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1651,15 +2678,15 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1667,7 +2694,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1675,7 +2702,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1683,15 +2710,15 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1699,39 +2726,39 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1739,7 +2766,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1747,23 +2774,23 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -1771,31 +2798,31 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -1803,23 +2830,23 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -1827,7 +2854,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -1835,23 +2862,23 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -1859,7 +2886,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -1867,31 +2894,31 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -1899,31 +2926,31 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1931,23 +2958,23 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1955,39 +2982,39 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1995,7 +3022,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -2003,7 +3030,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -2011,7 +3038,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -2019,7 +3046,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -2027,7 +3054,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -2035,7 +3062,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -2043,15 +3070,15 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -2059,15 +3086,15 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -2075,7 +3102,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -2083,15 +3110,15 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -2099,15 +3126,15 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -2115,7 +3142,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -2123,7 +3150,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2131,15 +3158,15 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -2147,15 +3174,15 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -2163,7 +3190,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -2171,23 +3198,23 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -2195,7 +3222,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -2203,15 +3230,15 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -2219,7 +3246,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -2227,7 +3254,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -2235,191 +3262,188 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="B127">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="B130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="B131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>70</v>
-      </c>
-      <c r="B132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="N132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>94</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>95</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>96</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>6</v>
       </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>58</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>53</v>
       </c>
-      <c r="B134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>71</v>
-      </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>72</v>
-      </c>
-      <c r="B136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>73</v>
-      </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>74</v>
-      </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>75</v>
-      </c>
-      <c r="B139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>76</v>
-      </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>77</v>
-      </c>
       <c r="B141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="B143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -2427,23 +3451,23 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -2451,23 +3475,23 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -2475,47 +3499,47 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -2523,7 +3547,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -2531,15 +3555,15 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -2547,7 +3571,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -2555,15 +3579,15 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -2571,7 +3595,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -2579,7 +3603,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -2587,15 +3611,15 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -2603,7 +3627,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -2611,7 +3635,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -2619,117 +3643,117 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="B177">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="B178">
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="B180">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>93</v>
-      </c>
-      <c r="N183">
+        <v>16</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>85</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>16</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>120</v>
+      </c>
+      <c r="B186">
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>8</v>
-      </c>
-      <c r="B184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>94</v>
-      </c>
-      <c r="B185">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>95</v>
-      </c>
-      <c r="B186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B187">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="B188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>6</v>
       </c>
@@ -2737,33 +3761,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="B190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="B191">
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -2771,23 +3795,23 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="B194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -2795,31 +3819,31 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="B199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -2827,23 +3851,23 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -2851,7 +3875,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -2859,15 +3883,15 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="B205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -2875,7 +3899,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2883,23 +3907,23 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -2907,1754 +3931,13 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="B211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>8</v>
-      </c>
-      <c r="B212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>8</v>
-      </c>
-      <c r="B213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>104</v>
-      </c>
-      <c r="B214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>85</v>
-      </c>
-      <c r="B215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>105</v>
-      </c>
-      <c r="B216">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>8</v>
-      </c>
-      <c r="B218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>53</v>
-      </c>
-      <c r="B219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>8</v>
-      </c>
-      <c r="B220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>106</v>
-      </c>
-      <c r="B221">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>107</v>
-      </c>
-      <c r="B222">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>72</v>
-      </c>
-      <c r="B223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>5</v>
-      </c>
-      <c r="B224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>108</v>
-      </c>
-      <c r="B225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>5</v>
-      </c>
-      <c r="B226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>58</v>
-      </c>
-      <c r="B227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>1</v>
-      </c>
-      <c r="B228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>109</v>
-      </c>
-      <c r="B229">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>8</v>
-      </c>
-      <c r="B230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>5</v>
-      </c>
-      <c r="B231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>53</v>
-      </c>
-      <c r="B232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>8</v>
-      </c>
-      <c r="B233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>5</v>
-      </c>
-      <c r="B234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>8</v>
-      </c>
-      <c r="B235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>63</v>
-      </c>
-      <c r="B236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>14</v>
-      </c>
-      <c r="B237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>110</v>
-      </c>
-      <c r="B238">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>14</v>
-      </c>
-      <c r="B239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>15</v>
-      </c>
-      <c r="B240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>33</v>
-      </c>
-      <c r="B241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>111</v>
-      </c>
-      <c r="B242">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>33</v>
-      </c>
-      <c r="B243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>8</v>
-      </c>
-      <c r="B244">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>112</v>
-      </c>
-      <c r="B245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>85</v>
-      </c>
-      <c r="B246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>113</v>
-      </c>
-      <c r="B247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>8</v>
-      </c>
-      <c r="B248">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>114</v>
-      </c>
-      <c r="B249">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>115</v>
-      </c>
-      <c r="B250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>8</v>
-      </c>
-      <c r="B251">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>116</v>
-      </c>
-      <c r="B252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>117</v>
-      </c>
-      <c r="B253">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>7</v>
-      </c>
-      <c r="B254">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>7</v>
-      </c>
-      <c r="B255">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>118</v>
-      </c>
-      <c r="B256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>119</v>
-      </c>
-      <c r="B257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>8</v>
-      </c>
-      <c r="B258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>5</v>
-      </c>
-      <c r="B259">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>8</v>
-      </c>
-      <c r="B260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>5</v>
-      </c>
-      <c r="B261">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>16</v>
-      </c>
-      <c r="B262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>85</v>
-      </c>
-      <c r="B263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>16</v>
-      </c>
-      <c r="B264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>33</v>
-      </c>
-      <c r="B265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>5</v>
-      </c>
-      <c r="B266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>5</v>
-      </c>
-      <c r="B267">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>120</v>
-      </c>
-      <c r="B268">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>121</v>
-      </c>
-      <c r="B269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>122</v>
-      </c>
-      <c r="B270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>6</v>
-      </c>
-      <c r="B271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>123</v>
-      </c>
-      <c r="B272">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>124</v>
-      </c>
-      <c r="B273">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>5</v>
-      </c>
-      <c r="B274">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>8</v>
-      </c>
-      <c r="B275">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>125</v>
-      </c>
-      <c r="B276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>126</v>
-      </c>
-      <c r="B277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>5</v>
-      </c>
-      <c r="B278">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>127</v>
-      </c>
-      <c r="B279">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>128</v>
-      </c>
-      <c r="B280">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>7</v>
-      </c>
-      <c r="B281">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>58</v>
-      </c>
-      <c r="B282">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>62</v>
-      </c>
-      <c r="B283">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>63</v>
-      </c>
-      <c r="B284">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>20</v>
-      </c>
-      <c r="B285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>129</v>
-      </c>
-      <c r="B286">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>8</v>
-      </c>
-      <c r="B287">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>8</v>
-      </c>
-      <c r="B288">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>130</v>
-      </c>
-      <c r="B289">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>5</v>
-      </c>
-      <c r="B290">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>34</v>
-      </c>
-      <c r="B291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>126</v>
-      </c>
-      <c r="B292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>131</v>
-      </c>
-      <c r="B293">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>132</v>
-      </c>
-      <c r="B294">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>8</v>
-      </c>
-      <c r="B295">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>1</v>
-      </c>
-      <c r="B296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>79</v>
-      </c>
-      <c r="B297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>133</v>
-      </c>
-      <c r="B298">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>7</v>
-      </c>
-      <c r="B299">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>5</v>
-      </c>
-      <c r="B300">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>134</v>
-      </c>
-      <c r="B301">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A201"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A136" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Gabigol.xlsx
+++ b/Gabigol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jotah\Desktop\INSPER\2ºSemestre\Ciência dos Dados\Projeto_2\Projeto_2-Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnr\Desktop\Ciência dos dados\project 2\Projeto_2-Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF5E117A-11EA-4942-8C2C-24DD5367AE00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E689AC0B-E097-43FF-824D-24B478BF7B84}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="23040" windowHeight="12144" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="755">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2496,6 +2496,15 @@
   </si>
   <si>
     <t>rafinha, bruno henrrique, gabigol, rodrigo caio e gerson, possuem tudo para virarem ídolo no flamengo e serem consi… https://t.co/cwyslty1yb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruim </t>
+  </si>
+  <si>
+    <t>Bom</t>
+  </si>
+  <si>
+    <t>Indiferente</t>
   </si>
 </sst>
 </file>
@@ -2899,2261 +2908,2261 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A390" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>450</v>
       </c>
@@ -5166,1517 +5175,2438 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A301"/>
+  <dimension ref="A1:R301"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
+    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="O302" sqref="O302"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="17" max="17" width="9.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>752</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>753</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>754</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>751</v>
+      </c>
+      <c r="O301">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Gabigol.xlsx
+++ b/Gabigol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnr\Desktop\Ciência dos dados\project 2\Projeto_2-Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jotah\Desktop\INSPER\2ºSemestre\Ciência dos Dados\Projeto_2\Projeto_2-Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E689AC0B-E097-43FF-824D-24B478BF7B84}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2668851B-9380-4676-BB27-B5BF26486DB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="23040" windowHeight="12144" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="755">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2906,2265 +2906,3639 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A451"/>
+  <dimension ref="A1:S451"/>
   <sheetViews>
-    <sheetView topLeftCell="A390" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="K457" sqref="K457"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="9.5703125" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="R1" t="s">
+        <v>752</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>753</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>754</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P328">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P330">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P331">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P332">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P333">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P335">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P344">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P348">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P349">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P350">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P352">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P354">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P360">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P361">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P363">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P365">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P366">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P368">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P369">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P377">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P378">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P379">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P380">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P385">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P387">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P388">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P390">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P392">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P393">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P396">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P398">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P399">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P405">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P407">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P409">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P410">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P411">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P413">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P415">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P416">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P417">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P418">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P420">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P421">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P422">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P424">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P426">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P427">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P428">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P431">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P432">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P437">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P438">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P439">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P440">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P441">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P443">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P445">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P446">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P448">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="P450">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>450</v>
+      </c>
+      <c r="P451">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5177,16 +6551,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="O302" sqref="O302"/>
+    <sheetView topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="17" max="17" width="9.88671875" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>451</v>
       </c>
@@ -5197,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>452</v>
       </c>
@@ -5211,7 +6585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>453</v>
       </c>
@@ -5225,7 +6599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>454</v>
       </c>
@@ -5233,7 +6607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>455</v>
       </c>
@@ -5241,7 +6615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>456</v>
       </c>
@@ -5249,7 +6623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>457</v>
       </c>
@@ -5257,7 +6631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>458</v>
       </c>
@@ -5265,7 +6639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>459</v>
       </c>
@@ -5273,7 +6647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>460</v>
       </c>
@@ -5281,7 +6655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>461</v>
       </c>
@@ -5289,7 +6663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>462</v>
       </c>
@@ -5297,7 +6671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>463</v>
       </c>
@@ -5305,7 +6679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>464</v>
       </c>
@@ -5313,7 +6687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>465</v>
       </c>
@@ -5321,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>466</v>
       </c>
@@ -5329,7 +6703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>467</v>
       </c>
@@ -5337,7 +6711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>468</v>
       </c>
@@ -5345,7 +6719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>469</v>
       </c>
@@ -5353,7 +6727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>470</v>
       </c>
@@ -5361,7 +6735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>471</v>
       </c>
@@ -5369,7 +6743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>472</v>
       </c>
@@ -5377,7 +6751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>473</v>
       </c>
@@ -5385,7 +6759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>474</v>
       </c>
@@ -5393,7 +6767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>475</v>
       </c>
@@ -5401,7 +6775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>476</v>
       </c>
@@ -5409,7 +6783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>477</v>
       </c>
@@ -5417,7 +6791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>478</v>
       </c>
@@ -5425,7 +6799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>479</v>
       </c>
@@ -5433,7 +6807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>480</v>
       </c>
@@ -5441,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>481</v>
       </c>
@@ -5449,7 +6823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>482</v>
       </c>
@@ -5457,7 +6831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>483</v>
       </c>
@@ -5465,7 +6839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>484</v>
       </c>
@@ -5473,7 +6847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>485</v>
       </c>
@@ -5481,7 +6855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>486</v>
       </c>
@@ -5489,7 +6863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>487</v>
       </c>
@@ -5497,7 +6871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>488</v>
       </c>
@@ -5505,7 +6879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>489</v>
       </c>
@@ -5513,7 +6887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>490</v>
       </c>
@@ -5521,7 +6895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>491</v>
       </c>
@@ -5529,7 +6903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>492</v>
       </c>
@@ -5537,7 +6911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>493</v>
       </c>
@@ -5545,7 +6919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>494</v>
       </c>
@@ -5553,7 +6927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>495</v>
       </c>
@@ -5561,7 +6935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>496</v>
       </c>
@@ -5569,7 +6943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>497</v>
       </c>
@@ -5577,7 +6951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>498</v>
       </c>
@@ -5585,7 +6959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>499</v>
       </c>
@@ -5593,7 +6967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>500</v>
       </c>
@@ -5601,7 +6975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>501</v>
       </c>
@@ -5609,7 +6983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>502</v>
       </c>
@@ -5617,7 +6991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>503</v>
       </c>
@@ -5625,7 +6999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>504</v>
       </c>
@@ -5633,7 +7007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>505</v>
       </c>
@@ -5641,7 +7015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>506</v>
       </c>
@@ -5649,7 +7023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>507</v>
       </c>
@@ -5657,7 +7031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>508</v>
       </c>
@@ -5665,7 +7039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>509</v>
       </c>
@@ -5673,7 +7047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>510</v>
       </c>
@@ -5681,7 +7055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>511</v>
       </c>
@@ -5689,7 +7063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>512</v>
       </c>
@@ -5697,7 +7071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>513</v>
       </c>
@@ -5705,7 +7079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>514</v>
       </c>
@@ -5713,7 +7087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>515</v>
       </c>
@@ -5721,7 +7095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>516</v>
       </c>
@@ -5729,7 +7103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>517</v>
       </c>
@@ -5737,7 +7111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>518</v>
       </c>
@@ -5745,7 +7119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>519</v>
       </c>
@@ -5753,7 +7127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>520</v>
       </c>
@@ -5761,7 +7135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>521</v>
       </c>
@@ -5769,7 +7143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>522</v>
       </c>
@@ -5777,7 +7151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>523</v>
       </c>
@@ -5785,7 +7159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>524</v>
       </c>
@@ -5793,7 +7167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>525</v>
       </c>
@@ -5801,7 +7175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>526</v>
       </c>
@@ -5809,7 +7183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>527</v>
       </c>
@@ -5817,7 +7191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>528</v>
       </c>
@@ -5825,7 +7199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>529</v>
       </c>
@@ -5833,7 +7207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>530</v>
       </c>
@@ -5841,7 +7215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>531</v>
       </c>
@@ -5849,7 +7223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>532</v>
       </c>
@@ -5857,7 +7231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>533</v>
       </c>
@@ -5865,7 +7239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>534</v>
       </c>
@@ -5873,7 +7247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>535</v>
       </c>
@@ -5881,7 +7255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>536</v>
       </c>
@@ -5889,7 +7263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>537</v>
       </c>
@@ -5897,7 +7271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>538</v>
       </c>
@@ -5905,7 +7279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>539</v>
       </c>
@@ -5913,7 +7287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>540</v>
       </c>
@@ -5921,7 +7295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>541</v>
       </c>
@@ -5929,7 +7303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>542</v>
       </c>
@@ -5937,7 +7311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>543</v>
       </c>
@@ -5945,7 +7319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>544</v>
       </c>
@@ -5953,7 +7327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>545</v>
       </c>
@@ -5961,7 +7335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>546</v>
       </c>
@@ -5969,7 +7343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>547</v>
       </c>
@@ -5977,7 +7351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>548</v>
       </c>
@@ -5985,7 +7359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>549</v>
       </c>
@@ -5993,7 +7367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>550</v>
       </c>
@@ -6001,7 +7375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>551</v>
       </c>
@@ -6009,7 +7383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>552</v>
       </c>
@@ -6017,7 +7391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>553</v>
       </c>
@@ -6025,7 +7399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>554</v>
       </c>
@@ -6033,7 +7407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>555</v>
       </c>
@@ -6041,7 +7415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>556</v>
       </c>
@@ -6049,7 +7423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>557</v>
       </c>
@@ -6057,7 +7431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>558</v>
       </c>
@@ -6065,7 +7439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>559</v>
       </c>
@@ -6073,7 +7447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>560</v>
       </c>
@@ -6081,7 +7455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>561</v>
       </c>
@@ -6089,7 +7463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>562</v>
       </c>
@@ -6097,7 +7471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>563</v>
       </c>
@@ -6105,7 +7479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>564</v>
       </c>
@@ -6113,7 +7487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>565</v>
       </c>
@@ -6121,7 +7495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>566</v>
       </c>
@@ -6129,7 +7503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>567</v>
       </c>
@@ -6137,7 +7511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>568</v>
       </c>
@@ -6145,7 +7519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>569</v>
       </c>
@@ -6153,7 +7527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>570</v>
       </c>
@@ -6161,7 +7535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>571</v>
       </c>
@@ -6169,7 +7543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>572</v>
       </c>
@@ -6177,7 +7551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>573</v>
       </c>
@@ -6185,7 +7559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>574</v>
       </c>
@@ -6193,7 +7567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>575</v>
       </c>
@@ -6201,7 +7575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>576</v>
       </c>
@@ -6209,7 +7583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>577</v>
       </c>
@@ -6217,7 +7591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>578</v>
       </c>
@@ -6225,7 +7599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>579</v>
       </c>
@@ -6233,7 +7607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>580</v>
       </c>
@@ -6241,7 +7615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>581</v>
       </c>
@@ -6249,7 +7623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>582</v>
       </c>
@@ -6257,7 +7631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>583</v>
       </c>
@@ -6265,7 +7639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>584</v>
       </c>
@@ -6273,7 +7647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>585</v>
       </c>
@@ -6281,7 +7655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>586</v>
       </c>
@@ -6289,7 +7663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>587</v>
       </c>
@@ -6297,7 +7671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>588</v>
       </c>
@@ -6305,7 +7679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>589</v>
       </c>
@@ -6313,7 +7687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>590</v>
       </c>
@@ -6321,7 +7695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>591</v>
       </c>
@@ -6329,7 +7703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>592</v>
       </c>
@@ -6337,7 +7711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>593</v>
       </c>
@@ -6345,7 +7719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>594</v>
       </c>
@@ -6353,7 +7727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>595</v>
       </c>
@@ -6361,7 +7735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>596</v>
       </c>
@@ -6369,7 +7743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>597</v>
       </c>
@@ -6377,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>598</v>
       </c>
@@ -6385,7 +7759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>599</v>
       </c>
@@ -6393,7 +7767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>600</v>
       </c>
@@ -6401,7 +7775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>601</v>
       </c>
@@ -6409,7 +7783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>602</v>
       </c>
@@ -6417,7 +7791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>603</v>
       </c>
@@ -6425,7 +7799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>604</v>
       </c>
@@ -6433,7 +7807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>605</v>
       </c>
@@ -6441,7 +7815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>606</v>
       </c>
@@ -6449,7 +7823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>607</v>
       </c>
@@ -6457,7 +7831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>608</v>
       </c>
@@ -6465,7 +7839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>609</v>
       </c>
@@ -6473,7 +7847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>610</v>
       </c>
@@ -6481,7 +7855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>611</v>
       </c>
@@ -6489,7 +7863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>612</v>
       </c>
@@ -6497,7 +7871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>613</v>
       </c>
@@ -6505,7 +7879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>614</v>
       </c>
@@ -6513,7 +7887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>615</v>
       </c>
@@ -6521,7 +7895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>616</v>
       </c>
@@ -6529,7 +7903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>617</v>
       </c>
@@ -6537,7 +7911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>618</v>
       </c>
@@ -6545,7 +7919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>619</v>
       </c>
@@ -6553,7 +7927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>620</v>
       </c>
@@ -6561,7 +7935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>621</v>
       </c>
@@ -6569,7 +7943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>622</v>
       </c>
@@ -6577,7 +7951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>623</v>
       </c>
@@ -6585,7 +7959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>624</v>
       </c>
@@ -6593,7 +7967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>625</v>
       </c>
@@ -6601,7 +7975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>626</v>
       </c>
@@ -6609,7 +7983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>627</v>
       </c>
@@ -6617,7 +7991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>628</v>
       </c>
@@ -6625,7 +7999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>629</v>
       </c>
@@ -6633,7 +8007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>630</v>
       </c>
@@ -6641,7 +8015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>631</v>
       </c>
@@ -6649,7 +8023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>632</v>
       </c>
@@ -6657,7 +8031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>633</v>
       </c>
@@ -6665,7 +8039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>634</v>
       </c>
@@ -6673,7 +8047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>635</v>
       </c>
@@ -6681,7 +8055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>636</v>
       </c>
@@ -6689,7 +8063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>637</v>
       </c>
@@ -6697,7 +8071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>638</v>
       </c>
@@ -6705,7 +8079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>639</v>
       </c>
@@ -6713,7 +8087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>640</v>
       </c>
@@ -6721,7 +8095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>641</v>
       </c>
@@ -6729,7 +8103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>642</v>
       </c>
@@ -6737,7 +8111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>643</v>
       </c>
@@ -6745,7 +8119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>644</v>
       </c>
@@ -6753,7 +8127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>645</v>
       </c>
@@ -6761,7 +8135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>646</v>
       </c>
@@ -6769,7 +8143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>647</v>
       </c>
@@ -6777,7 +8151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>648</v>
       </c>
@@ -6785,7 +8159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>649</v>
       </c>
@@ -6793,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>650</v>
       </c>
@@ -6801,7 +8175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>651</v>
       </c>
@@ -6809,7 +8183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>652</v>
       </c>
@@ -6817,7 +8191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>653</v>
       </c>
@@ -6825,7 +8199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>654</v>
       </c>
@@ -6833,7 +8207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>655</v>
       </c>
@@ -6841,7 +8215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>656</v>
       </c>
@@ -6849,7 +8223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>657</v>
       </c>
@@ -6857,7 +8231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>658</v>
       </c>
@@ -6865,7 +8239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>659</v>
       </c>
@@ -6873,7 +8247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>660</v>
       </c>
@@ -6881,7 +8255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>661</v>
       </c>
@@ -6889,7 +8263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>662</v>
       </c>
@@ -6897,7 +8271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>663</v>
       </c>
@@ -6905,7 +8279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>664</v>
       </c>
@@ -6913,7 +8287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>665</v>
       </c>
@@ -6921,7 +8295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>666</v>
       </c>
@@ -6929,7 +8303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>667</v>
       </c>
@@ -6937,7 +8311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>668</v>
       </c>
@@ -6945,7 +8319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>669</v>
       </c>
@@ -6953,7 +8327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>670</v>
       </c>
@@ -6961,7 +8335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>671</v>
       </c>
@@ -6969,7 +8343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>672</v>
       </c>
@@ -6977,7 +8351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>673</v>
       </c>
@@ -6985,7 +8359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>674</v>
       </c>
@@ -6993,7 +8367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>675</v>
       </c>
@@ -7001,7 +8375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>676</v>
       </c>
@@ -7009,7 +8383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>677</v>
       </c>
@@ -7017,7 +8391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>678</v>
       </c>
@@ -7025,7 +8399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>679</v>
       </c>
@@ -7033,7 +8407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>680</v>
       </c>
@@ -7041,7 +8415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>681</v>
       </c>
@@ -7049,7 +8423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>682</v>
       </c>
@@ -7057,7 +8431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>683</v>
       </c>
@@ -7065,7 +8439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>684</v>
       </c>
@@ -7073,7 +8447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>685</v>
       </c>
@@ -7081,7 +8455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>686</v>
       </c>
@@ -7089,7 +8463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>687</v>
       </c>
@@ -7097,7 +8471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>688</v>
       </c>
@@ -7105,7 +8479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>689</v>
       </c>
@@ -7113,7 +8487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>690</v>
       </c>
@@ -7121,7 +8495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>691</v>
       </c>
@@ -7129,7 +8503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>692</v>
       </c>
@@ -7137,7 +8511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>693</v>
       </c>
@@ -7145,7 +8519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>694</v>
       </c>
@@ -7153,7 +8527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>695</v>
       </c>
@@ -7161,7 +8535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>696</v>
       </c>
@@ -7169,7 +8543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>697</v>
       </c>
@@ -7177,7 +8551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>698</v>
       </c>
@@ -7185,7 +8559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>699</v>
       </c>
@@ -7193,7 +8567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>700</v>
       </c>
@@ -7201,7 +8575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>701</v>
       </c>
@@ -7209,7 +8583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>702</v>
       </c>
@@ -7217,7 +8591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>703</v>
       </c>
@@ -7225,7 +8599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>704</v>
       </c>
@@ -7233,7 +8607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>705</v>
       </c>
@@ -7241,7 +8615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>706</v>
       </c>
@@ -7249,7 +8623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>707</v>
       </c>
@@ -7257,7 +8631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>708</v>
       </c>
@@ -7265,7 +8639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>709</v>
       </c>
@@ -7273,7 +8647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>710</v>
       </c>
@@ -7281,7 +8655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>711</v>
       </c>
@@ -7289,7 +8663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>712</v>
       </c>
@@ -7297,7 +8671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>713</v>
       </c>
@@ -7305,7 +8679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>714</v>
       </c>
@@ -7313,7 +8687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>715</v>
       </c>
@@ -7321,7 +8695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>716</v>
       </c>
@@ -7329,7 +8703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>717</v>
       </c>
@@ -7337,7 +8711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>718</v>
       </c>
@@ -7345,7 +8719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>719</v>
       </c>
@@ -7353,7 +8727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>720</v>
       </c>
@@ -7361,7 +8735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>721</v>
       </c>
@@ -7369,7 +8743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>722</v>
       </c>
@@ -7377,7 +8751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>723</v>
       </c>
@@ -7385,7 +8759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>724</v>
       </c>
@@ -7393,7 +8767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>725</v>
       </c>
@@ -7401,7 +8775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>726</v>
       </c>
@@ -7409,7 +8783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>727</v>
       </c>
@@ -7417,7 +8791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>728</v>
       </c>
@@ -7425,7 +8799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>729</v>
       </c>
@@ -7433,7 +8807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>730</v>
       </c>
@@ -7441,7 +8815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>731</v>
       </c>
@@ -7449,7 +8823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>732</v>
       </c>
@@ -7457,7 +8831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>733</v>
       </c>
@@ -7465,7 +8839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>734</v>
       </c>
@@ -7473,7 +8847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>735</v>
       </c>
@@ -7481,7 +8855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>736</v>
       </c>
@@ -7489,7 +8863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>737</v>
       </c>
@@ -7497,7 +8871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>738</v>
       </c>
@@ -7505,7 +8879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>739</v>
       </c>
@@ -7513,7 +8887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>740</v>
       </c>
@@ -7521,7 +8895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>741</v>
       </c>
@@ -7529,7 +8903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>742</v>
       </c>
@@ -7537,7 +8911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>743</v>
       </c>
@@ -7545,7 +8919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>744</v>
       </c>
@@ -7553,7 +8927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>745</v>
       </c>
@@ -7561,7 +8935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>746</v>
       </c>
@@ -7569,7 +8943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>747</v>
       </c>
@@ -7577,7 +8951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>748</v>
       </c>
@@ -7585,7 +8959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>749</v>
       </c>
@@ -7593,7 +8967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>750</v>
       </c>
@@ -7601,7 +8975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>751</v>
       </c>

--- a/Gabigol.xlsx
+++ b/Gabigol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jotah\Desktop\INSPER\2ºSemestre\Ciência dos Dados\Projeto_2\Projeto_2-Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2668851B-9380-4676-BB27-B5BF26486DB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E66F99-9494-452D-AD9C-5526DF004DC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="756">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2505,6 +2505,9 @@
   </si>
   <si>
     <t>Indiferente</t>
+  </si>
+  <si>
+    <t>Classificação</t>
   </si>
 </sst>
 </file>
@@ -2908,12 +2911,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="K457" sqref="K457"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="142.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
     <col min="17" max="17" width="9.5703125" customWidth="1"/>
     <col min="18" max="18" width="12.140625" customWidth="1"/>
   </cols>
@@ -2922,6 +2928,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>755</v>
+      </c>
       <c r="R1" t="s">
         <v>752</v>
       </c>
@@ -2933,7 +2942,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="P2">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="R2" t="s">
@@ -2947,7 +2956,7 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="P3">
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="R3" t="s">
@@ -2961,7 +2970,7 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="P4">
+      <c r="B4">
         <v>0</v>
       </c>
     </row>
@@ -2969,7 +2978,7 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="P5">
+      <c r="B5">
         <v>2</v>
       </c>
     </row>
@@ -2977,7 +2986,7 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="P6">
+      <c r="B6">
         <v>1</v>
       </c>
     </row>
@@ -2985,7 +2994,7 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="P7">
+      <c r="B7">
         <v>2</v>
       </c>
     </row>
@@ -2993,7 +3002,7 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="P8">
+      <c r="B8">
         <v>2</v>
       </c>
     </row>
@@ -3001,7 +3010,7 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="P9">
+      <c r="B9">
         <v>2</v>
       </c>
     </row>
@@ -3009,7 +3018,7 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="P10">
+      <c r="B10">
         <v>0</v>
       </c>
     </row>
@@ -3017,7 +3026,7 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="P11">
+      <c r="B11">
         <v>1</v>
       </c>
     </row>
@@ -3025,7 +3034,7 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="P12">
+      <c r="B12">
         <v>2</v>
       </c>
     </row>
@@ -3033,7 +3042,7 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="P13">
+      <c r="B13">
         <v>2</v>
       </c>
     </row>
@@ -3041,7 +3050,7 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="P14">
+      <c r="B14">
         <v>2</v>
       </c>
     </row>
@@ -3049,7 +3058,7 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="P15">
+      <c r="B15">
         <v>1</v>
       </c>
     </row>
@@ -3057,3487 +3066,3487 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="P16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="P17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="P18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="P19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="P21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="P22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="P23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="P24">
+      <c r="B24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="P25">
+      <c r="B25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="P26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="P27">
+      <c r="B27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="P28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="P29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="P30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="P31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="P33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="P34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="P35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="P36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="P37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="P38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="P39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="P40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="P41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="P42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="P43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="P44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="P45">
+      <c r="B45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="P46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="P47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="P48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="P49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="P50">
+      <c r="B50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="P51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="P52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="P53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="P54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="P55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-      <c r="P56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="P57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="P58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="P59">
+      <c r="B59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="P60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="P61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-      <c r="P62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="P63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="P64">
+      <c r="B64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="P65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-      <c r="P66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="P67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="P68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-      <c r="P69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-      <c r="P70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-      <c r="P71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-      <c r="P72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-      <c r="P73">
+      <c r="B73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-      <c r="P74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-      <c r="P75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-      <c r="P76">
+      <c r="B76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-      <c r="P77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-      <c r="P78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-      <c r="P79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-      <c r="P80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-      <c r="P81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-      <c r="P82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-      <c r="P83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-      <c r="P84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-      <c r="P85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-      <c r="P86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-      <c r="P87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-      <c r="P88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-      <c r="P89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-      <c r="P90">
+      <c r="B90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-      <c r="P91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-      <c r="P92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-      <c r="P93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-      <c r="P94">
+      <c r="B94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-      <c r="P95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-      <c r="P96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-      <c r="P97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-      <c r="P98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-      <c r="P99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-      <c r="P100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-      <c r="P101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-      <c r="P102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-      <c r="P103">
+      <c r="B103">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
-      <c r="P104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-      <c r="P105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-      <c r="P106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-      <c r="P107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-      <c r="P108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-      <c r="P109">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
-      <c r="P110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
-      <c r="P111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-      <c r="P112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-      <c r="P113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
-      <c r="P114">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-      <c r="P115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
-      <c r="P116">
+      <c r="B116">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-      <c r="P117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
-      <c r="P118">
+      <c r="B118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
-      <c r="P119">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-      <c r="P120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-      <c r="P121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
-      <c r="P122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
-      <c r="P123">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-      <c r="P124">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
-      <c r="P125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-      <c r="P126">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-      <c r="P127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
-      <c r="P128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
-      <c r="P129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
-      <c r="P130">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
-      <c r="P131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
-      <c r="P132">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
-      <c r="P133">
+      <c r="B133">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
-      <c r="P134">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
-      <c r="P135">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
-      <c r="P136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
-      <c r="P137">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
-      <c r="P138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
-      <c r="P139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
-      <c r="P140">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
-      <c r="P141">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
-      <c r="P142">
+      <c r="B142">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
-      <c r="P143">
+      <c r="B143">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
-      <c r="P144">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
-      <c r="P145">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
-      <c r="P146">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
-      <c r="P147">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
-      <c r="P148">
+      <c r="B148">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
-      <c r="P149">
+      <c r="B149">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
-      <c r="P150">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
-      <c r="P151">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
-      <c r="P152">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
-      <c r="P153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
-      <c r="P154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
-      <c r="P155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
-      <c r="P156">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
-      <c r="P157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
-      <c r="P158">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
-      <c r="P159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
-      <c r="P160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
-      <c r="P161">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
-      <c r="P162">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
-      <c r="P163">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
-      <c r="P164">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
-      <c r="P165">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
-      <c r="P166">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
-      <c r="P167">
+      <c r="B167">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
-      <c r="P168">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
-      <c r="P169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
-      <c r="P170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
-      <c r="P171">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
-      <c r="P172">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
-      <c r="P173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
-      <c r="P174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
-      <c r="P175">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
-      <c r="P176">
+      <c r="B176">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
-      <c r="P177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
-      <c r="P178">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
-      <c r="P179">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
-      <c r="P180">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
-      <c r="P181">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
-      <c r="P182">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
-      <c r="P183">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
-      <c r="P184">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
-      <c r="P185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
-      <c r="P186">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
-      <c r="P187">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
-      <c r="P188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
-      <c r="P189">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
-      <c r="P190">
+      <c r="B190">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
-      <c r="P191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
-      <c r="P192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
-      <c r="P193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
-      <c r="P194">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
-      <c r="P195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
-      <c r="P196">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
-      <c r="P197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
-      <c r="P198">
+      <c r="B198">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
-      <c r="P199">
+      <c r="B199">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
-      <c r="P200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
-      <c r="P201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
-      <c r="P202">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
-      <c r="P203">
+      <c r="B203">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
-      <c r="P204">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
-      <c r="P205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
-      <c r="P206">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
-      <c r="P207">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
-      <c r="P208">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
-      <c r="P209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
-      <c r="P210">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
-      <c r="P211">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
-      <c r="P212">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
-      <c r="P213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
-      <c r="P214">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
-      <c r="P215">
+      <c r="B215">
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
-      <c r="P216">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
-      <c r="P217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
-      <c r="P218">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
-      <c r="P219">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
-      <c r="P220">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
-      <c r="P221">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
-      <c r="P222">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
-      <c r="P223">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
-      <c r="P224">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
-      <c r="P225">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
-      <c r="P226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
-      <c r="P227">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
-      <c r="P228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
-      <c r="P229">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
-      <c r="P230">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
-      <c r="P231">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
-      <c r="P232">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
-      <c r="P233">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
-      <c r="P234">
+      <c r="B234">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
-      <c r="P235">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
-      <c r="P236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
-      <c r="P237">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
-      <c r="P238">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
-      <c r="P239">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
-      <c r="P240">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
-      <c r="P241">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
-      <c r="P242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
-      <c r="P243">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
-      <c r="P244">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
-      <c r="P245">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
-      <c r="P246">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
-      <c r="P247">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
-      <c r="P248">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
-      <c r="P249">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
-      <c r="P250">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
-      <c r="P251">
+      <c r="B251">
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
-      <c r="P252">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
-      <c r="P253">
+      <c r="B253">
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
-      <c r="P254">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
-      <c r="P255">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
-      <c r="P256">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
-      <c r="P257">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
-      <c r="P258">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
-      <c r="P259">
+      <c r="B259">
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
-      <c r="P260">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
-      <c r="P261">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
-      <c r="P262">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
-      <c r="P263">
+      <c r="B263">
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
-      <c r="P264">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
-      <c r="P265">
+      <c r="B265">
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
-      <c r="P266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
-      <c r="P267">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
-      <c r="P268">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
-      <c r="P269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
-      <c r="P270">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
-      <c r="P271">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
-      <c r="P272">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
-      <c r="P273">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
-      <c r="P274">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
-      <c r="P275">
+      <c r="B275">
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
-      <c r="P276">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
-      <c r="P277">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
-      <c r="P278">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
-      <c r="P279">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
-      <c r="P280">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
-      <c r="P281">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
-      <c r="P282">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
-      <c r="P283">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
-      <c r="P284">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
-      <c r="P285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
-      <c r="P286">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
-      <c r="P287">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
-      <c r="P288">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
-      <c r="P289">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
-      <c r="P290">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
-      <c r="P291">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
-      <c r="P292">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
-      <c r="P293">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
-      <c r="P294">
+      <c r="B294">
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
-      <c r="P295">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
-      <c r="P296">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
-      <c r="P297">
+      <c r="B297">
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
-      <c r="P298">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
-      <c r="P299">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
-      <c r="P300">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>300</v>
       </c>
-      <c r="P301">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>301</v>
       </c>
-      <c r="P302">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>302</v>
       </c>
-      <c r="P303">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>303</v>
       </c>
-      <c r="P304">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>304</v>
       </c>
-      <c r="P305">
+      <c r="B305">
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>305</v>
       </c>
-      <c r="P306">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>306</v>
       </c>
-      <c r="P307">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>307</v>
       </c>
-      <c r="P308">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>308</v>
       </c>
-      <c r="P309">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>309</v>
       </c>
-      <c r="P310">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>310</v>
       </c>
-      <c r="P311">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>311</v>
       </c>
-      <c r="P312">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>312</v>
       </c>
-      <c r="P313">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>313</v>
       </c>
-      <c r="P314">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>314</v>
       </c>
-      <c r="P315">
+      <c r="B315">
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>315</v>
       </c>
-      <c r="P316">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>316</v>
       </c>
-      <c r="P317">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>317</v>
       </c>
-      <c r="P318">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>318</v>
       </c>
-      <c r="P319">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>319</v>
       </c>
-      <c r="P320">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>320</v>
       </c>
-      <c r="P321">
+      <c r="B321">
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>321</v>
       </c>
-      <c r="P322">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>322</v>
       </c>
-      <c r="P323">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>323</v>
       </c>
-      <c r="P324">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>324</v>
       </c>
-      <c r="P325">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>325</v>
       </c>
-      <c r="P326">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>326</v>
       </c>
-      <c r="P327">
+      <c r="B327">
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>327</v>
       </c>
-      <c r="P328">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B328">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>328</v>
       </c>
-      <c r="P329">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>329</v>
       </c>
-      <c r="P330">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B330">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>330</v>
       </c>
-      <c r="P331">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B331">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>331</v>
       </c>
-      <c r="P332">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B332">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>332</v>
       </c>
-      <c r="P333">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B333">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>333</v>
       </c>
-      <c r="P334">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>334</v>
       </c>
-      <c r="P335">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B335">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>335</v>
       </c>
-      <c r="P336">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>336</v>
       </c>
-      <c r="P337">
+      <c r="B337">
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>337</v>
       </c>
-      <c r="P338">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>338</v>
       </c>
-      <c r="P339">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>339</v>
       </c>
-      <c r="P340">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>340</v>
       </c>
-      <c r="P341">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>341</v>
       </c>
-      <c r="P342">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>342</v>
       </c>
-      <c r="P343">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>343</v>
       </c>
-      <c r="P344">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B344">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>344</v>
       </c>
-      <c r="P345">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>345</v>
       </c>
-      <c r="P346">
+      <c r="B346">
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>346</v>
       </c>
-      <c r="P347">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>347</v>
       </c>
-      <c r="P348">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B348">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>348</v>
       </c>
-      <c r="P349">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B349">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>349</v>
       </c>
-      <c r="P350">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B350">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>350</v>
       </c>
-      <c r="P351">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>351</v>
       </c>
-      <c r="P352">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B352">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>352</v>
       </c>
-      <c r="P353">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>353</v>
       </c>
-      <c r="P354">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B354">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>354</v>
       </c>
-      <c r="P355">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>355</v>
       </c>
-      <c r="P356">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>356</v>
       </c>
-      <c r="P357">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>357</v>
       </c>
-      <c r="P358">
+      <c r="B358">
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>358</v>
       </c>
-      <c r="P359">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>359</v>
       </c>
-      <c r="P360">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B360">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>360</v>
       </c>
-      <c r="P361">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B361">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>361</v>
       </c>
-      <c r="P362">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>362</v>
       </c>
-      <c r="P363">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B363">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>363</v>
       </c>
-      <c r="P364">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>364</v>
       </c>
-      <c r="P365">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B365">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>365</v>
       </c>
-      <c r="P366">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B366">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>366</v>
       </c>
-      <c r="P367">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>367</v>
       </c>
-      <c r="P368">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B368">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>368</v>
       </c>
-      <c r="P369">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B369">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>369</v>
       </c>
-      <c r="P370">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>370</v>
       </c>
-      <c r="P371">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>371</v>
       </c>
-      <c r="P372">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>372</v>
       </c>
-      <c r="P373">
+      <c r="B373">
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>373</v>
       </c>
-      <c r="P374">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>374</v>
       </c>
-      <c r="P375">
+      <c r="B375">
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>375</v>
       </c>
-      <c r="P376">
+      <c r="B376">
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>376</v>
       </c>
-      <c r="P377">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B377">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>377</v>
       </c>
-      <c r="P378">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B378">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>378</v>
       </c>
-      <c r="P379">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B379">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>379</v>
       </c>
-      <c r="P380">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B380">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>380</v>
       </c>
-      <c r="P381">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>381</v>
       </c>
-      <c r="P382">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>382</v>
       </c>
-      <c r="P383">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>383</v>
       </c>
-      <c r="P384">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>384</v>
       </c>
-      <c r="P385">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B385">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>385</v>
       </c>
-      <c r="P386">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>386</v>
       </c>
-      <c r="P387">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B387">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>387</v>
       </c>
-      <c r="P388">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B388">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>388</v>
       </c>
-      <c r="P389">
+      <c r="B389">
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>389</v>
       </c>
-      <c r="P390">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B390">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>390</v>
       </c>
-      <c r="P391">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>391</v>
       </c>
-      <c r="P392">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B392">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>392</v>
       </c>
-      <c r="P393">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B393">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>393</v>
       </c>
-      <c r="P394">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>394</v>
       </c>
-      <c r="P395">
+      <c r="B395">
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>395</v>
       </c>
-      <c r="P396">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B396">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>396</v>
       </c>
-      <c r="P397">
+      <c r="B397">
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>397</v>
       </c>
-      <c r="P398">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B398">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>398</v>
       </c>
-      <c r="P399">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B399">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>399</v>
       </c>
-      <c r="P400">
+      <c r="B400">
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>400</v>
       </c>
-      <c r="P401">
+      <c r="B401">
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>401</v>
       </c>
-      <c r="P402">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>402</v>
       </c>
-      <c r="P403">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>403</v>
       </c>
-      <c r="P404">
+      <c r="B404">
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>404</v>
       </c>
-      <c r="P405">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B405">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>405</v>
       </c>
-      <c r="P406">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>406</v>
       </c>
-      <c r="P407">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B407">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>407</v>
       </c>
-      <c r="P408">
+      <c r="B408">
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>408</v>
       </c>
-      <c r="P409">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B409">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>409</v>
       </c>
-      <c r="P410">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B410">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>410</v>
       </c>
-      <c r="P411">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B411">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>411</v>
       </c>
-      <c r="P412">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>412</v>
       </c>
-      <c r="P413">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B413">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>413</v>
       </c>
-      <c r="P414">
+      <c r="B414">
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>414</v>
       </c>
-      <c r="P415">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B415">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>415</v>
       </c>
-      <c r="P416">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B416">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>416</v>
       </c>
-      <c r="P417">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B417">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>417</v>
       </c>
-      <c r="P418">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B418">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>418</v>
       </c>
-      <c r="P419">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>419</v>
       </c>
-      <c r="P420">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B420">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>420</v>
       </c>
-      <c r="P421">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B421">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>421</v>
       </c>
-      <c r="P422">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B422">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>422</v>
       </c>
-      <c r="P423">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>423</v>
       </c>
-      <c r="P424">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B424">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>424</v>
       </c>
-      <c r="P425">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>425</v>
       </c>
-      <c r="P426">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B426">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>426</v>
       </c>
-      <c r="P427">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B427">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>427</v>
       </c>
-      <c r="P428">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B428">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>428</v>
       </c>
-      <c r="P429">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>429</v>
       </c>
-      <c r="P430">
+      <c r="B430">
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>430</v>
       </c>
-      <c r="P431">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B431">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>431</v>
       </c>
-      <c r="P432">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B432">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>432</v>
       </c>
-      <c r="P433">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>433</v>
       </c>
-      <c r="P434">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>434</v>
       </c>
-      <c r="P435">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>435</v>
       </c>
-      <c r="P436">
+      <c r="B436">
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>436</v>
       </c>
-      <c r="P437">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B437">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>437</v>
       </c>
-      <c r="P438">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B438">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>438</v>
       </c>
-      <c r="P439">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B439">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>439</v>
       </c>
-      <c r="P440">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B440">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>440</v>
       </c>
-      <c r="P441">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B441">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>441</v>
       </c>
-      <c r="P442">
+      <c r="B442">
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>442</v>
       </c>
-      <c r="P443">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B443">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>443</v>
       </c>
-      <c r="P444">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>444</v>
       </c>
-      <c r="P445">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B445">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>445</v>
       </c>
-      <c r="P446">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B446">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>446</v>
       </c>
-      <c r="P447">
+      <c r="B447">
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>447</v>
       </c>
-      <c r="P448">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B448">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>448</v>
       </c>
-      <c r="P449">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>449</v>
       </c>
-      <c r="P450">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B450">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>450</v>
       </c>
-      <c r="P451">
+      <c r="B451">
         <v>2</v>
       </c>
     </row>
@@ -6551,12 +6560,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R301"/>
   <sheetViews>
-    <sheetView topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="145.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
     <col min="17" max="17" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6564,6 +6576,9 @@
       <c r="A1" s="1" t="s">
         <v>451</v>
       </c>
+      <c r="B1" t="s">
+        <v>755</v>
+      </c>
       <c r="Q1" t="s">
         <v>752</v>
       </c>
@@ -6575,7 +6590,7 @@
       <c r="A2" t="s">
         <v>452</v>
       </c>
-      <c r="O2">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="Q2" t="s">
@@ -6589,7 +6604,7 @@
       <c r="A3" t="s">
         <v>453</v>
       </c>
-      <c r="O3">
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
@@ -6603,7 +6618,7 @@
       <c r="A4" t="s">
         <v>454</v>
       </c>
-      <c r="O4">
+      <c r="B4">
         <v>2</v>
       </c>
     </row>
@@ -6611,7 +6626,7 @@
       <c r="A5" t="s">
         <v>455</v>
       </c>
-      <c r="O5">
+      <c r="B5">
         <v>2</v>
       </c>
     </row>
@@ -6619,7 +6634,7 @@
       <c r="A6" t="s">
         <v>456</v>
       </c>
-      <c r="O6">
+      <c r="B6">
         <v>2</v>
       </c>
     </row>
@@ -6627,7 +6642,7 @@
       <c r="A7" t="s">
         <v>457</v>
       </c>
-      <c r="O7">
+      <c r="B7">
         <v>2</v>
       </c>
     </row>
@@ -6635,7 +6650,7 @@
       <c r="A8" t="s">
         <v>458</v>
       </c>
-      <c r="O8">
+      <c r="B8">
         <v>1</v>
       </c>
     </row>
@@ -6643,7 +6658,7 @@
       <c r="A9" t="s">
         <v>459</v>
       </c>
-      <c r="O9">
+      <c r="B9">
         <v>1</v>
       </c>
     </row>
@@ -6651,7 +6666,7 @@
       <c r="A10" t="s">
         <v>460</v>
       </c>
-      <c r="O10">
+      <c r="B10">
         <v>2</v>
       </c>
     </row>
@@ -6659,7 +6674,7 @@
       <c r="A11" t="s">
         <v>461</v>
       </c>
-      <c r="O11">
+      <c r="B11">
         <v>2</v>
       </c>
     </row>
@@ -6667,7 +6682,7 @@
       <c r="A12" t="s">
         <v>462</v>
       </c>
-      <c r="O12">
+      <c r="B12">
         <v>1</v>
       </c>
     </row>
@@ -6675,7 +6690,7 @@
       <c r="A13" t="s">
         <v>463</v>
       </c>
-      <c r="O13">
+      <c r="B13">
         <v>1</v>
       </c>
     </row>
@@ -6683,7 +6698,7 @@
       <c r="A14" t="s">
         <v>464</v>
       </c>
-      <c r="O14">
+      <c r="B14">
         <v>1</v>
       </c>
     </row>
@@ -6691,7 +6706,7 @@
       <c r="A15" t="s">
         <v>465</v>
       </c>
-      <c r="O15">
+      <c r="B15">
         <v>0</v>
       </c>
     </row>
@@ -6699,2287 +6714,2287 @@
       <c r="A16" t="s">
         <v>466</v>
       </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>467</v>
       </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>468</v>
       </c>
-      <c r="O18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>469</v>
       </c>
-      <c r="O19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>470</v>
       </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>471</v>
       </c>
-      <c r="O21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>472</v>
       </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>473</v>
       </c>
-      <c r="O23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>474</v>
       </c>
-      <c r="O24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>475</v>
       </c>
-      <c r="O25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>476</v>
       </c>
-      <c r="O26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>477</v>
       </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>478</v>
       </c>
-      <c r="O28">
+      <c r="B28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>479</v>
       </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>480</v>
       </c>
-      <c r="O30">
+      <c r="B30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>481</v>
       </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>482</v>
       </c>
-      <c r="O32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>483</v>
       </c>
-      <c r="O33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>484</v>
       </c>
-      <c r="O34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>485</v>
       </c>
-      <c r="O35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>486</v>
       </c>
-      <c r="O36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>487</v>
       </c>
-      <c r="O37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>488</v>
       </c>
-      <c r="O38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>489</v>
       </c>
-      <c r="O39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>490</v>
       </c>
-      <c r="O40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>491</v>
       </c>
-      <c r="O41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>492</v>
       </c>
-      <c r="O42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>493</v>
       </c>
-      <c r="O43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>494</v>
       </c>
-      <c r="O44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>495</v>
       </c>
-      <c r="O45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>496</v>
       </c>
-      <c r="O46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>497</v>
       </c>
-      <c r="O47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>498</v>
       </c>
-      <c r="O48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>499</v>
       </c>
-      <c r="O49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>500</v>
       </c>
-      <c r="O50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>501</v>
       </c>
-      <c r="O51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>502</v>
       </c>
-      <c r="O52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>503</v>
       </c>
-      <c r="O53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>504</v>
       </c>
-      <c r="O54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>505</v>
       </c>
-      <c r="O55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>506</v>
       </c>
-      <c r="O56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>507</v>
       </c>
-      <c r="O57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>508</v>
       </c>
-      <c r="O58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>509</v>
       </c>
-      <c r="O59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>510</v>
       </c>
-      <c r="O60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>511</v>
       </c>
-      <c r="O61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>512</v>
       </c>
-      <c r="O62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>513</v>
       </c>
-      <c r="O63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>514</v>
       </c>
-      <c r="O64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>515</v>
       </c>
-      <c r="O65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>516</v>
       </c>
-      <c r="O66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>517</v>
       </c>
-      <c r="O67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>518</v>
       </c>
-      <c r="O68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>519</v>
       </c>
-      <c r="O69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>520</v>
       </c>
-      <c r="O70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>521</v>
       </c>
-      <c r="O71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>522</v>
       </c>
-      <c r="O72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>523</v>
       </c>
-      <c r="O73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>524</v>
       </c>
-      <c r="O74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>525</v>
       </c>
-      <c r="O75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>526</v>
       </c>
-      <c r="O76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>527</v>
       </c>
-      <c r="O77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>528</v>
       </c>
-      <c r="O78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>529</v>
       </c>
-      <c r="O79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>530</v>
       </c>
-      <c r="O80">
+      <c r="B80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>531</v>
       </c>
-      <c r="O81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>532</v>
       </c>
-      <c r="O82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>533</v>
       </c>
-      <c r="O83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>534</v>
       </c>
-      <c r="O84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>535</v>
       </c>
-      <c r="O85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>536</v>
       </c>
-      <c r="O86">
+      <c r="B86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>537</v>
       </c>
-      <c r="O87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>538</v>
       </c>
-      <c r="O88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>539</v>
       </c>
-      <c r="O89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>540</v>
       </c>
-      <c r="O90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>541</v>
       </c>
-      <c r="O91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>542</v>
       </c>
-      <c r="O92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>543</v>
       </c>
-      <c r="O93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>544</v>
       </c>
-      <c r="O94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>545</v>
       </c>
-      <c r="O95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>546</v>
       </c>
-      <c r="O96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>547</v>
       </c>
-      <c r="O97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>548</v>
       </c>
-      <c r="O98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>549</v>
       </c>
-      <c r="O99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>550</v>
       </c>
-      <c r="O100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>551</v>
       </c>
-      <c r="O101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>552</v>
       </c>
-      <c r="O102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>553</v>
       </c>
-      <c r="O103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>554</v>
       </c>
-      <c r="O104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>555</v>
       </c>
-      <c r="O105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>556</v>
       </c>
-      <c r="O106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>557</v>
       </c>
-      <c r="O107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>558</v>
       </c>
-      <c r="O108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>559</v>
       </c>
-      <c r="O109">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>560</v>
       </c>
-      <c r="O110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>561</v>
       </c>
-      <c r="O111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>562</v>
       </c>
-      <c r="O112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>563</v>
       </c>
-      <c r="O113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>564</v>
       </c>
-      <c r="O114">
+      <c r="B114">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>565</v>
       </c>
-      <c r="O115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>566</v>
       </c>
-      <c r="O116">
+      <c r="B116">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>567</v>
       </c>
-      <c r="O117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>568</v>
       </c>
-      <c r="O118">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>569</v>
       </c>
-      <c r="O119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>570</v>
       </c>
-      <c r="O120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>571</v>
       </c>
-      <c r="O121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>572</v>
       </c>
-      <c r="O122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>573</v>
       </c>
-      <c r="O123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>574</v>
       </c>
-      <c r="O124">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>575</v>
       </c>
-      <c r="O125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>576</v>
       </c>
-      <c r="O126">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>577</v>
       </c>
-      <c r="O127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>578</v>
       </c>
-      <c r="O128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>579</v>
       </c>
-      <c r="O129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>580</v>
       </c>
-      <c r="O130">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>581</v>
       </c>
-      <c r="O131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>582</v>
       </c>
-      <c r="O132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>583</v>
       </c>
-      <c r="O133">
+      <c r="B133">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>584</v>
       </c>
-      <c r="O134">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>585</v>
       </c>
-      <c r="O135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>586</v>
       </c>
-      <c r="O136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>587</v>
       </c>
-      <c r="O137">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>588</v>
       </c>
-      <c r="O138">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>589</v>
       </c>
-      <c r="O139">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>590</v>
       </c>
-      <c r="O140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>591</v>
       </c>
-      <c r="O141">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>592</v>
       </c>
-      <c r="O142">
+      <c r="B142">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>593</v>
       </c>
-      <c r="O143">
+      <c r="B143">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>594</v>
       </c>
-      <c r="O144">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>595</v>
       </c>
-      <c r="O145">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>596</v>
       </c>
-      <c r="O146">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>597</v>
       </c>
-      <c r="O147">
+      <c r="B147">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>598</v>
       </c>
-      <c r="O148">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>599</v>
       </c>
-      <c r="O149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>600</v>
       </c>
-      <c r="O150">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>601</v>
       </c>
-      <c r="O151">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>602</v>
       </c>
-      <c r="O152">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>603</v>
       </c>
-      <c r="O153">
+      <c r="B153">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>604</v>
       </c>
-      <c r="O154">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>605</v>
       </c>
-      <c r="O155">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>606</v>
       </c>
-      <c r="O156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>607</v>
       </c>
-      <c r="O157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>608</v>
       </c>
-      <c r="O158">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>609</v>
       </c>
-      <c r="O159">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>610</v>
       </c>
-      <c r="O160">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>611</v>
       </c>
-      <c r="O161">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>612</v>
       </c>
-      <c r="O162">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>613</v>
       </c>
-      <c r="O163">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>614</v>
       </c>
-      <c r="O164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>615</v>
       </c>
-      <c r="O165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>616</v>
       </c>
-      <c r="O166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>617</v>
       </c>
-      <c r="O167">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>618</v>
       </c>
-      <c r="O168">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>619</v>
       </c>
-      <c r="O169">
+      <c r="B169">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>620</v>
       </c>
-      <c r="O170">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>621</v>
       </c>
-      <c r="O171">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>622</v>
       </c>
-      <c r="O172">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>623</v>
       </c>
-      <c r="O173">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>624</v>
       </c>
-      <c r="O174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>625</v>
       </c>
-      <c r="O175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>626</v>
       </c>
-      <c r="O176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>627</v>
       </c>
-      <c r="O177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>628</v>
       </c>
-      <c r="O178">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>629</v>
       </c>
-      <c r="O179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>630</v>
       </c>
-      <c r="O180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>631</v>
       </c>
-      <c r="O181">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>632</v>
       </c>
-      <c r="O182">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>633</v>
       </c>
-      <c r="O183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>634</v>
       </c>
-      <c r="O184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>635</v>
       </c>
-      <c r="O185">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>636</v>
       </c>
-      <c r="O186">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>637</v>
       </c>
-      <c r="O187">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>638</v>
       </c>
-      <c r="O188">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>639</v>
       </c>
-      <c r="O189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>640</v>
       </c>
-      <c r="O190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>641</v>
       </c>
-      <c r="O191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>642</v>
       </c>
-      <c r="O192">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>643</v>
       </c>
-      <c r="O193">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>644</v>
       </c>
-      <c r="O194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>645</v>
       </c>
-      <c r="O195">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>646</v>
       </c>
-      <c r="O196">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>647</v>
       </c>
-      <c r="O197">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>648</v>
       </c>
-      <c r="O198">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>649</v>
       </c>
-      <c r="O199">
+      <c r="B199">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>650</v>
       </c>
-      <c r="O200">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>651</v>
       </c>
-      <c r="O201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>652</v>
       </c>
-      <c r="O202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>653</v>
       </c>
-      <c r="O203">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>654</v>
       </c>
-      <c r="O204">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>655</v>
       </c>
-      <c r="O205">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>656</v>
       </c>
-      <c r="O206">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>657</v>
       </c>
-      <c r="O207">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>658</v>
       </c>
-      <c r="O208">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>659</v>
       </c>
-      <c r="O209">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>660</v>
       </c>
-      <c r="O210">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>661</v>
       </c>
-      <c r="O211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>662</v>
       </c>
-      <c r="O212">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>663</v>
       </c>
-      <c r="O213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>664</v>
       </c>
-      <c r="O214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>665</v>
       </c>
-      <c r="O215">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>666</v>
       </c>
-      <c r="O216">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>667</v>
       </c>
-      <c r="O217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>668</v>
       </c>
-      <c r="O218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>669</v>
       </c>
-      <c r="O219">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>670</v>
       </c>
-      <c r="O220">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>671</v>
       </c>
-      <c r="O221">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>672</v>
       </c>
-      <c r="O222">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>673</v>
       </c>
-      <c r="O223">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>674</v>
       </c>
-      <c r="O224">
+      <c r="B224">
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>675</v>
       </c>
-      <c r="O225">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>676</v>
       </c>
-      <c r="O226">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>677</v>
       </c>
-      <c r="O227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>678</v>
       </c>
-      <c r="O228">
+      <c r="B228">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>679</v>
       </c>
-      <c r="O229">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>680</v>
       </c>
-      <c r="O230">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>681</v>
       </c>
-      <c r="O231">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>682</v>
       </c>
-      <c r="O232">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>683</v>
       </c>
-      <c r="O233">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>684</v>
       </c>
-      <c r="O234">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>685</v>
       </c>
-      <c r="O235">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>686</v>
       </c>
-      <c r="O236">
+      <c r="B236">
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>687</v>
       </c>
-      <c r="O237">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>688</v>
       </c>
-      <c r="O238">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>689</v>
       </c>
-      <c r="O239">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>690</v>
       </c>
-      <c r="O240">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>691</v>
       </c>
-      <c r="O241">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>692</v>
       </c>
-      <c r="O242">
+      <c r="B242">
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>693</v>
       </c>
-      <c r="O243">
+      <c r="B243">
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>694</v>
       </c>
-      <c r="O244">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>695</v>
       </c>
-      <c r="O245">
+      <c r="B245">
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>696</v>
       </c>
-      <c r="O246">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>697</v>
       </c>
-      <c r="O247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>698</v>
       </c>
-      <c r="O248">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>699</v>
       </c>
-      <c r="O249">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>700</v>
       </c>
-      <c r="O250">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>701</v>
       </c>
-      <c r="O251">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>702</v>
       </c>
-      <c r="O252">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>703</v>
       </c>
-      <c r="O253">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>704</v>
       </c>
-      <c r="O254">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>705</v>
       </c>
-      <c r="O255">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>706</v>
       </c>
-      <c r="O256">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>707</v>
       </c>
-      <c r="O257">
+      <c r="B257">
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>708</v>
       </c>
-      <c r="O258">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>709</v>
       </c>
-      <c r="O259">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>710</v>
       </c>
-      <c r="O260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>711</v>
       </c>
-      <c r="O261">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>712</v>
       </c>
-      <c r="O262">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>713</v>
       </c>
-      <c r="O263">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>714</v>
       </c>
-      <c r="O264">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>715</v>
       </c>
-      <c r="O265">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>716</v>
       </c>
-      <c r="O266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>717</v>
       </c>
-      <c r="O267">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>718</v>
       </c>
-      <c r="O268">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>719</v>
       </c>
-      <c r="O269">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>720</v>
       </c>
-      <c r="O270">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>721</v>
       </c>
-      <c r="O271">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>722</v>
       </c>
-      <c r="O272">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>723</v>
       </c>
-      <c r="O273">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>724</v>
       </c>
-      <c r="O274">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>725</v>
       </c>
-      <c r="O275">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>726</v>
       </c>
-      <c r="O276">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>727</v>
       </c>
-      <c r="O277">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>728</v>
       </c>
-      <c r="O278">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>729</v>
       </c>
-      <c r="O279">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>730</v>
       </c>
-      <c r="O280">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>731</v>
       </c>
-      <c r="O281">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>732</v>
       </c>
-      <c r="O282">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>733</v>
       </c>
-      <c r="O283">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>734</v>
       </c>
-      <c r="O284">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>735</v>
       </c>
-      <c r="O285">
+      <c r="B285">
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>736</v>
       </c>
-      <c r="O286">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>737</v>
       </c>
-      <c r="O287">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>738</v>
       </c>
-      <c r="O288">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>739</v>
       </c>
-      <c r="O289">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>740</v>
       </c>
-      <c r="O290">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>741</v>
       </c>
-      <c r="O291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>742</v>
       </c>
-      <c r="O292">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>743</v>
       </c>
-      <c r="O293">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>744</v>
       </c>
-      <c r="O294">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>745</v>
       </c>
-      <c r="O295">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>746</v>
       </c>
-      <c r="O296">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>747</v>
       </c>
-      <c r="O297">
+      <c r="B297">
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>748</v>
       </c>
-      <c r="O298">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>749</v>
       </c>
-      <c r="O299">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>750</v>
       </c>
-      <c r="O300">
+      <c r="B300">
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>751</v>
       </c>
-      <c r="O301">
+      <c r="B301">
         <v>1</v>
       </c>
     </row>
